--- a/fermentation_insights/TRY_results/b_spearman_general_takeaways.xlsx
+++ b/fermentation_insights/TRY_results/b_spearman_general_takeaways.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="25">
   <si>
     <t>product</t>
   </si>
@@ -62,6 +62,21 @@
   </si>
   <si>
     <t>TAL</t>
+  </si>
+  <si>
+    <t>TAL_SA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>HP_neutral</t>
+  </si>
+  <si>
+    <t>HP_hexanol</t>
+  </si>
+  <si>
+    <t>HP_neutral_hexanol</t>
   </si>
   <si>
     <t>glucose</t>
@@ -431,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P5"/>
+  <dimension ref="A1:P25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -492,46 +507,46 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D2">
-        <v>-0.3708013068013068</v>
+        <v>-0.3522625722625722</v>
       </c>
       <c r="E2">
-        <v>0.5721514881514882</v>
+        <v>0.6254840054840055</v>
       </c>
       <c r="F2">
-        <v>-0.09559711159711159</v>
+        <v>-0.001924753924753925</v>
       </c>
       <c r="G2">
-        <v>-0.007934323934323934</v>
+        <v>-0.01504866304866305</v>
       </c>
       <c r="H2">
-        <v>0.003264411264411264</v>
+        <v>-0.005405429405429405</v>
       </c>
       <c r="I2">
-        <v>-0.002399450399450399</v>
+        <v>0.007416655416655417</v>
       </c>
       <c r="J2">
-        <v>-0.003667083667083667</v>
+        <v>-0.01370516570516571</v>
       </c>
       <c r="K2">
-        <v>0.01269264069264069</v>
+        <v>0.01652344052344052</v>
       </c>
       <c r="L2">
-        <v>-0.02537154137154137</v>
+        <v>-0.03259280059280059</v>
       </c>
       <c r="M2">
-        <v>0.03668725268725269</v>
+        <v>0.03971375171375172</v>
       </c>
       <c r="N2">
-        <v>-0.01251621651621652</v>
+        <v>-0.008877872877872877</v>
       </c>
       <c r="O2">
-        <v>-0.06985108585108585</v>
+        <v>-0.07418126618126618</v>
       </c>
       <c r="P2">
-        <v>-0.1007503847503848</v>
+        <v>-0.113012297012297</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -542,46 +557,46 @@
         <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D3">
-        <v>-0.3930649170649171</v>
+        <v>-0.4128073608073608</v>
       </c>
       <c r="E3">
-        <v>0.2097203457203457</v>
+        <v>0.267972207972208</v>
       </c>
       <c r="F3">
-        <v>-0.2020890700890701</v>
+        <v>-0.2175927255927256</v>
       </c>
       <c r="G3">
-        <v>-0.1101744501744502</v>
+        <v>-0.07879194679194679</v>
       </c>
       <c r="H3">
-        <v>-0.03613508413508414</v>
+        <v>-0.03525419925419925</v>
       </c>
       <c r="I3">
-        <v>0.02056988056988057</v>
+        <v>0.008504624504624504</v>
       </c>
       <c r="J3">
-        <v>0.01920648720648721</v>
+        <v>-0.02019413619413619</v>
       </c>
       <c r="K3">
-        <v>-0.01219456819456819</v>
+        <v>-0.01035141435141435</v>
       </c>
       <c r="L3">
-        <v>-0.02702420702420702</v>
+        <v>-0.02168910968910969</v>
       </c>
       <c r="M3">
-        <v>0.1132504612504612</v>
+        <v>0.06081357681357681</v>
       </c>
       <c r="N3">
-        <v>0.04598552198552198</v>
+        <v>0.01761233361233361</v>
       </c>
       <c r="O3">
-        <v>-0.2566483006483006</v>
+        <v>-0.2961756321756322</v>
       </c>
       <c r="P3">
-        <v>-0.2001986241986242</v>
+        <v>-0.2425781785781786</v>
       </c>
     </row>
     <row r="4" spans="1:16">
@@ -592,46 +607,46 @@
         <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D4">
-        <v>-0.241000957000957</v>
+        <v>-0.2783822663822664</v>
       </c>
       <c r="E4">
-        <v>0.3475542955542956</v>
+        <v>0.3493060573060573</v>
       </c>
       <c r="F4">
-        <v>-0.147984567984568</v>
+        <v>-0.1520685560685561</v>
       </c>
       <c r="G4">
-        <v>-0.3992958872958873</v>
+        <v>-0.4008992208992209</v>
       </c>
       <c r="H4">
-        <v>-0.05145459945459945</v>
+        <v>-0.05224121224121224</v>
       </c>
       <c r="I4">
-        <v>0.009446229446229446</v>
+        <v>0.01283809283809284</v>
       </c>
       <c r="J4">
-        <v>-0.04238509838509839</v>
+        <v>-0.04864273264273265</v>
       </c>
       <c r="K4">
-        <v>-0.01044322644322644</v>
+        <v>-0.0133013053013053</v>
       </c>
       <c r="L4">
-        <v>-0.02907400107400107</v>
+        <v>-0.02967748167748168</v>
       </c>
       <c r="M4">
-        <v>0.04067880467880468</v>
+        <v>0.04182224982224982</v>
       </c>
       <c r="N4">
-        <v>-0.006187878187878188</v>
+        <v>0.0007199167199167199</v>
       </c>
       <c r="O4">
-        <v>-0.1581067101067101</v>
+        <v>-0.1628555828555829</v>
       </c>
       <c r="P4">
-        <v>-0.2352097032097032</v>
+        <v>-0.2326357486357486</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -642,46 +657,1046 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>-0.3805839325839326</v>
+      </c>
+      <c r="E5">
+        <v>0.1637116877116877</v>
+      </c>
+      <c r="F5">
+        <v>-0.2368476568476569</v>
+      </c>
+      <c r="G5">
+        <v>-0.03317379317379317</v>
+      </c>
+      <c r="H5">
+        <v>-0.03656504456504456</v>
+      </c>
+      <c r="I5">
+        <v>0.01659124059124059</v>
+      </c>
+      <c r="J5">
+        <v>-0.02612251412251412</v>
+      </c>
+      <c r="K5">
+        <v>0.03612614412614413</v>
+      </c>
+      <c r="L5">
+        <v>-0.01085812685812686</v>
+      </c>
+      <c r="M5">
+        <v>0.03635269235269235</v>
+      </c>
+      <c r="N5">
+        <v>0.009968493968493969</v>
+      </c>
+      <c r="O5">
+        <v>-0.1640987240987241</v>
+      </c>
+      <c r="P5">
+        <v>-0.1842410562410562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>-0.282951702951703</v>
+      </c>
+      <c r="E6">
+        <v>0.5951149031149031</v>
+      </c>
+      <c r="F6">
+        <v>-0.1141880821880822</v>
+      </c>
+      <c r="G6">
+        <v>-0.1204280044280044</v>
+      </c>
+      <c r="H6">
+        <v>0.04771323571323571</v>
+      </c>
+      <c r="I6">
+        <v>0.04944732144732145</v>
+      </c>
+      <c r="J6">
+        <v>0.01903074703074703</v>
+      </c>
+      <c r="K6">
+        <v>0.02799837999838</v>
+      </c>
+      <c r="L6">
+        <v>0.02618195018195018</v>
+      </c>
+      <c r="M6">
+        <v>-0.02434940434940435</v>
+      </c>
+      <c r="N6">
+        <v>-0.009305037305037305</v>
+      </c>
+      <c r="O6">
+        <v>-0.07546920346920347</v>
+      </c>
+      <c r="P6">
+        <v>-0.07786240186240186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7">
+        <v>-0.3559308679308679</v>
+      </c>
+      <c r="E7">
+        <v>0.2145173625173625</v>
+      </c>
+      <c r="F7">
+        <v>-0.3269395349395349</v>
+      </c>
+      <c r="G7">
+        <v>-0.2397814197814198</v>
+      </c>
+      <c r="H7">
+        <v>0.01273548073548074</v>
+      </c>
+      <c r="I7">
+        <v>0.06116668916668917</v>
+      </c>
+      <c r="J7">
+        <v>0.03352702552702553</v>
+      </c>
+      <c r="K7">
+        <v>-0.03954546354546355</v>
+      </c>
+      <c r="L7">
+        <v>0.02372495972495972</v>
+      </c>
+      <c r="M7">
+        <v>-0.006851922851922852</v>
+      </c>
+      <c r="N7">
+        <v>-0.01492554292554293</v>
+      </c>
+      <c r="O7">
+        <v>-0.3192369912369912</v>
+      </c>
+      <c r="P7">
+        <v>-0.2040946680946681</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8">
+        <v>-0.2925445245445246</v>
+      </c>
+      <c r="E8">
+        <v>0.2591352431352431</v>
+      </c>
+      <c r="F8">
+        <v>-0.2772122892122892</v>
+      </c>
+      <c r="G8">
+        <v>-0.5101734061734061</v>
+      </c>
+      <c r="H8">
+        <v>0.0141044661044661</v>
+      </c>
+      <c r="I8">
+        <v>0.06794003594003593</v>
+      </c>
+      <c r="J8">
+        <v>0.03018366618366618</v>
+      </c>
+      <c r="K8">
+        <v>-0.04890894090894091</v>
+      </c>
+      <c r="L8">
+        <v>0.004637020637020637</v>
+      </c>
+      <c r="M8">
+        <v>-0.02089133689133689</v>
+      </c>
+      <c r="N8">
+        <v>-0.0133969333969334</v>
+      </c>
+      <c r="O8">
+        <v>-0.1979363219363219</v>
+      </c>
+      <c r="P8">
+        <v>-0.1851885171885172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9">
+        <v>-0.3421556581556582</v>
+      </c>
+      <c r="E9">
+        <v>0.1556311556311556</v>
+      </c>
+      <c r="F9">
+        <v>-0.3127484527484528</v>
+      </c>
+      <c r="G9">
+        <v>-0.1661314301314301</v>
+      </c>
+      <c r="H9">
+        <v>0.01274349674349674</v>
+      </c>
+      <c r="I9">
+        <v>0.05562397962397962</v>
+      </c>
+      <c r="J9">
+        <v>0.02954389754389754</v>
+      </c>
+      <c r="K9">
+        <v>-0.01346719346719347</v>
+      </c>
+      <c r="L9">
+        <v>0.03973057573057573</v>
+      </c>
+      <c r="M9">
+        <v>-0.02524644124644125</v>
+      </c>
+      <c r="N9">
+        <v>0.001225441225441225</v>
+      </c>
+      <c r="O9">
+        <v>-0.1723407403407403</v>
+      </c>
+      <c r="P9">
+        <v>-0.1369410169410169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10">
+        <v>-0.1712451272451272</v>
+      </c>
+      <c r="E10">
+        <v>0.9457907017907018</v>
+      </c>
+      <c r="F10">
+        <v>-0.04526830526830527</v>
+      </c>
+      <c r="G10">
+        <v>-0.05297185697185697</v>
+      </c>
+      <c r="H10">
+        <v>-0.01995383595383595</v>
+      </c>
+      <c r="I10">
+        <v>0.00772002772002772</v>
+      </c>
+      <c r="J10">
+        <v>0.02028696828696829</v>
+      </c>
+      <c r="K10">
+        <v>0.02715309915309915</v>
+      </c>
+      <c r="L10">
+        <v>0.02771083571083571</v>
+      </c>
+      <c r="M10">
+        <v>-0.02219067419067419</v>
+      </c>
+      <c r="N10">
+        <v>0.03738357738357739</v>
+      </c>
+      <c r="O10">
+        <v>-0.03052251052251052</v>
+      </c>
+      <c r="P10">
+        <v>-0.068994080994081</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11">
+        <v>-0.2427655707655708</v>
+      </c>
+      <c r="E11">
+        <v>0.4286330846330846</v>
+      </c>
+      <c r="F11">
+        <v>-0.2287939687939688</v>
+      </c>
+      <c r="G11">
+        <v>-0.2504725664725665</v>
+      </c>
+      <c r="H11">
+        <v>-0.06812517212517212</v>
+      </c>
+      <c r="I11">
+        <v>-0.01703876903876904</v>
+      </c>
+      <c r="J11">
+        <v>-0.05511035511035511</v>
+      </c>
+      <c r="K11">
+        <v>-0.0893994053994054</v>
+      </c>
+      <c r="L11">
+        <v>-0.01430568230568231</v>
+      </c>
+      <c r="M11">
+        <v>-0.02020414420414421</v>
+      </c>
+      <c r="N11">
+        <v>0.02103796503796504</v>
+      </c>
+      <c r="O11">
+        <v>-0.4895244455244455</v>
+      </c>
+      <c r="P11">
+        <v>-0.3613557613557614</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12">
+        <v>-0.1595270435270435</v>
+      </c>
+      <c r="E12">
+        <v>0.4675267795267795</v>
+      </c>
+      <c r="F12">
+        <v>-0.2067368547368547</v>
+      </c>
+      <c r="G12">
+        <v>-0.6434807234807235</v>
+      </c>
+      <c r="H12">
+        <v>-0.05958103158103158</v>
+      </c>
+      <c r="I12">
+        <v>0.005122097122097122</v>
+      </c>
+      <c r="J12">
+        <v>-0.05983499983499983</v>
+      </c>
+      <c r="K12">
+        <v>-0.06071608871608872</v>
+      </c>
+      <c r="L12">
+        <v>-0.02062516462516463</v>
+      </c>
+      <c r="M12">
+        <v>-0.02742735942735943</v>
+      </c>
+      <c r="N12">
+        <v>0.001991281991281991</v>
+      </c>
+      <c r="O12">
+        <v>-0.2565095925095925</v>
+      </c>
+      <c r="P12">
+        <v>-0.2965548685548686</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13">
+        <v>-0.396936756936757</v>
+      </c>
+      <c r="E13">
+        <v>0.3891088731088731</v>
+      </c>
+      <c r="F13">
+        <v>-0.2317354117354117</v>
+      </c>
+      <c r="G13">
+        <v>-0.2292262812262812</v>
+      </c>
+      <c r="H13">
+        <v>-0.05516220716220716</v>
+      </c>
+      <c r="I13">
+        <v>-0.02843764043764044</v>
+      </c>
+      <c r="J13">
+        <v>-0.05682489282489282</v>
+      </c>
+      <c r="K13">
+        <v>-0.1049292929292929</v>
+      </c>
+      <c r="L13">
+        <v>-0.009557385557385558</v>
+      </c>
+      <c r="M13">
+        <v>-0.02166160566160566</v>
+      </c>
+      <c r="N13">
+        <v>0.01622863622863623</v>
+      </c>
+      <c r="O13">
+        <v>-0.4031544671544672</v>
+      </c>
+      <c r="P13">
+        <v>-0.4195747435747436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14">
+        <v>-0.243953583953584</v>
+      </c>
+      <c r="E14">
+        <v>0.9430930630930631</v>
+      </c>
+      <c r="F14">
+        <v>-0.1009210849210849</v>
+      </c>
+      <c r="G14">
+        <v>-0.06739308739308739</v>
+      </c>
+      <c r="H14">
+        <v>-0.08101377301377301</v>
+      </c>
+      <c r="I14">
+        <v>-0.02207849807849808</v>
+      </c>
+      <c r="J14">
+        <v>-0.004307080307080307</v>
+      </c>
+      <c r="K14">
+        <v>0.000868068868068868</v>
+      </c>
+      <c r="L14">
+        <v>0.003418899418899419</v>
+      </c>
+      <c r="M14">
+        <v>0.0305005985005985</v>
+      </c>
+      <c r="N14">
+        <v>-0.02712981912981913</v>
+      </c>
+      <c r="O14">
+        <v>-0.04825255225255225</v>
+      </c>
+      <c r="P14">
+        <v>-0.09066582666582666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15">
+        <v>-0.2577832737832738</v>
+      </c>
+      <c r="E15">
+        <v>0.4335614175614176</v>
+      </c>
+      <c r="F15">
+        <v>-0.2286402486402487</v>
+      </c>
+      <c r="G15">
+        <v>-0.2477621357621358</v>
+      </c>
+      <c r="H15">
+        <v>-0.06916353316353316</v>
+      </c>
+      <c r="I15">
+        <v>-0.01934771534771535</v>
+      </c>
+      <c r="J15">
+        <v>-0.0534002214002214</v>
+      </c>
+      <c r="K15">
+        <v>-0.08580985380985381</v>
+      </c>
+      <c r="L15">
+        <v>-0.01297434097434098</v>
+      </c>
+      <c r="M15">
+        <v>-0.01794792594792595</v>
+      </c>
+      <c r="N15">
+        <v>0.01987284787284787</v>
+      </c>
+      <c r="O15">
+        <v>-0.4841512961512962</v>
+      </c>
+      <c r="P15">
+        <v>-0.3544475344475345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16">
+        <v>-0.1350709710709711</v>
+      </c>
+      <c r="E16">
+        <v>0.4573978813978814</v>
+      </c>
+      <c r="F16">
+        <v>-0.1187417867417867</v>
+      </c>
+      <c r="G16">
+        <v>-0.6595178155178155</v>
+      </c>
+      <c r="H16">
+        <v>0.009905709905709905</v>
+      </c>
+      <c r="I16">
+        <v>0.009996681996681996</v>
+      </c>
+      <c r="J16">
+        <v>0.02754551154551154</v>
+      </c>
+      <c r="K16">
+        <v>-0.03824559824559825</v>
+      </c>
+      <c r="L16">
+        <v>0.01153793953793954</v>
+      </c>
+      <c r="M16">
+        <v>-0.0695949335949336</v>
+      </c>
+      <c r="N16">
+        <v>-0.001291285291285291</v>
+      </c>
+      <c r="O16">
+        <v>-0.2332918132918133</v>
+      </c>
+      <c r="P16">
+        <v>-0.2336546816546816</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17">
+        <v>-0.3971047451047451</v>
+      </c>
+      <c r="E17">
+        <v>0.3856720936720937</v>
+      </c>
+      <c r="F17">
+        <v>-0.2288370368370369</v>
+      </c>
+      <c r="G17">
+        <v>-0.2270861990861991</v>
+      </c>
+      <c r="H17">
+        <v>-0.05623035223035223</v>
+      </c>
+      <c r="I17">
+        <v>-0.02836982836982837</v>
+      </c>
+      <c r="J17">
+        <v>-0.05494981894981895</v>
+      </c>
+      <c r="K17">
+        <v>-0.1052003372003372</v>
+      </c>
+      <c r="L17">
+        <v>-0.01007240207240207</v>
+      </c>
+      <c r="M17">
+        <v>-0.02151346551346551</v>
+      </c>
+      <c r="N17">
+        <v>0.01643218043218043</v>
+      </c>
+      <c r="O17">
+        <v>-0.4117583437583437</v>
+      </c>
+      <c r="P17">
+        <v>-0.4212073452073452</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
         <v>19</v>
       </c>
-      <c r="D5">
-        <v>-0.3333752973752974</v>
-      </c>
-      <c r="E5">
-        <v>0.1524799884799885</v>
-      </c>
-      <c r="F5">
-        <v>-0.2390634110634111</v>
-      </c>
-      <c r="G5">
-        <v>-0.03729058929058929</v>
-      </c>
-      <c r="H5">
-        <v>-0.03735694935694936</v>
-      </c>
-      <c r="I5">
-        <v>0.01894168294168294</v>
-      </c>
-      <c r="J5">
-        <v>-0.01886975486975487</v>
-      </c>
-      <c r="K5">
-        <v>0.04383607983607984</v>
-      </c>
-      <c r="L5">
-        <v>-0.009352689352689353</v>
-      </c>
-      <c r="M5">
-        <v>0.03652105252105252</v>
-      </c>
-      <c r="N5">
-        <v>0.003842787842787843</v>
-      </c>
-      <c r="O5">
-        <v>-0.1608694968694969</v>
-      </c>
-      <c r="P5">
-        <v>-0.1778852258852259</v>
+      <c r="C18" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18">
+        <v>-0.246035586035586</v>
+      </c>
+      <c r="E18">
+        <v>0.946987246987247</v>
+      </c>
+      <c r="F18">
+        <v>-0.09635992835992836</v>
+      </c>
+      <c r="G18">
+        <v>-0.06225201825201825</v>
+      </c>
+      <c r="H18">
+        <v>-0.07943995943995943</v>
+      </c>
+      <c r="I18">
+        <v>-0.02311783111783112</v>
+      </c>
+      <c r="J18">
+        <v>-0.004900780900780901</v>
+      </c>
+      <c r="K18">
+        <v>0.003120819120819121</v>
+      </c>
+      <c r="L18">
+        <v>0.004671028671028671</v>
+      </c>
+      <c r="M18">
+        <v>0.03065945465945466</v>
+      </c>
+      <c r="N18">
+        <v>-0.02814342414342414</v>
+      </c>
+      <c r="O18">
+        <v>-0.04453400053400054</v>
+      </c>
+      <c r="P18">
+        <v>-0.08083352083352083</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19">
+        <v>-0.2719077079077079</v>
+      </c>
+      <c r="E19">
+        <v>0.4406469446469446</v>
+      </c>
+      <c r="F19">
+        <v>-0.2338834858834859</v>
+      </c>
+      <c r="G19">
+        <v>-0.2351588351588351</v>
+      </c>
+      <c r="H19">
+        <v>-0.07198852798852799</v>
+      </c>
+      <c r="I19">
+        <v>-0.01983361983361983</v>
+      </c>
+      <c r="J19">
+        <v>-0.057005517005517</v>
+      </c>
+      <c r="K19">
+        <v>-0.08788813588813589</v>
+      </c>
+      <c r="L19">
+        <v>-0.01086157086157086</v>
+      </c>
+      <c r="M19">
+        <v>-0.02218473418473418</v>
+      </c>
+      <c r="N19">
+        <v>0.02022137622137622</v>
+      </c>
+      <c r="O19">
+        <v>-0.5094890934890934</v>
+      </c>
+      <c r="P19">
+        <v>-0.3554360234360234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20">
+        <v>-0.1761438321438321</v>
+      </c>
+      <c r="E20">
+        <v>0.5019665259665259</v>
+      </c>
+      <c r="F20">
+        <v>-0.1941719301719302</v>
+      </c>
+      <c r="G20">
+        <v>-0.5892266772266772</v>
+      </c>
+      <c r="H20">
+        <v>-0.06118141318141318</v>
+      </c>
+      <c r="I20">
+        <v>0.003012855012855013</v>
+      </c>
+      <c r="J20">
+        <v>-0.06113208113208114</v>
+      </c>
+      <c r="K20">
+        <v>-0.07367064167064168</v>
+      </c>
+      <c r="L20">
+        <v>-0.01996162396162396</v>
+      </c>
+      <c r="M20">
+        <v>-0.02313945513945514</v>
+      </c>
+      <c r="N20">
+        <v>0.0005668805668805669</v>
+      </c>
+      <c r="O20">
+        <v>-0.2853557133557134</v>
+      </c>
+      <c r="P20">
+        <v>-0.3284944004944005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21">
+        <v>-0.4105590145590146</v>
+      </c>
+      <c r="E21">
+        <v>0.3898348018348018</v>
+      </c>
+      <c r="F21">
+        <v>-0.2344775224775225</v>
+      </c>
+      <c r="G21">
+        <v>-0.2235869355869356</v>
+      </c>
+      <c r="H21">
+        <v>-0.05305470505470505</v>
+      </c>
+      <c r="I21">
+        <v>-0.02786893586893587</v>
+      </c>
+      <c r="J21">
+        <v>-0.05445889845889846</v>
+      </c>
+      <c r="K21">
+        <v>-0.1067692667692668</v>
+      </c>
+      <c r="L21">
+        <v>-0.01255785655785656</v>
+      </c>
+      <c r="M21">
+        <v>-0.01436924636924637</v>
+      </c>
+      <c r="N21">
+        <v>0.01377153777153777</v>
+      </c>
+      <c r="O21">
+        <v>-0.4157200517200517</v>
+      </c>
+      <c r="P21">
+        <v>-0.4244737364737365</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22">
+        <v>-0.2265055185055185</v>
+      </c>
+      <c r="E22">
+        <v>0.9514702114702115</v>
+      </c>
+      <c r="F22">
+        <v>-0.0967953607953608</v>
+      </c>
+      <c r="G22">
+        <v>-0.06232301032301032</v>
+      </c>
+      <c r="H22">
+        <v>-0.08130839730839731</v>
+      </c>
+      <c r="I22">
+        <v>-0.02237048237048237</v>
+      </c>
+      <c r="J22">
+        <v>-0.003993567993567993</v>
+      </c>
+      <c r="K22">
+        <v>0.002494946494946495</v>
+      </c>
+      <c r="L22">
+        <v>0.003077103077103077</v>
+      </c>
+      <c r="M22">
+        <v>0.03257165657165657</v>
+      </c>
+      <c r="N22">
+        <v>-0.0281025641025641</v>
+      </c>
+      <c r="O22">
+        <v>-0.04445121245121245</v>
+      </c>
+      <c r="P22">
+        <v>-0.08129433329433329</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23">
+        <v>-0.2657883137883138</v>
+      </c>
+      <c r="E23">
+        <v>0.4461322821322821</v>
+      </c>
+      <c r="F23">
+        <v>-0.2359022119022119</v>
+      </c>
+      <c r="G23">
+        <v>-0.2371313611313611</v>
+      </c>
+      <c r="H23">
+        <v>-0.07426544626544626</v>
+      </c>
+      <c r="I23">
+        <v>-0.02226022626022626</v>
+      </c>
+      <c r="J23">
+        <v>-0.05478535878535878</v>
+      </c>
+      <c r="K23">
+        <v>-0.08550999750999751</v>
+      </c>
+      <c r="L23">
+        <v>-0.009814809814809814</v>
+      </c>
+      <c r="M23">
+        <v>-0.02012520812520812</v>
+      </c>
+      <c r="N23">
+        <v>0.02028802428802429</v>
+      </c>
+      <c r="O23">
+        <v>-0.5067097827097827</v>
+      </c>
+      <c r="P23">
+        <v>-0.3542074262074262</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24">
+        <v>-0.1683538683538683</v>
+      </c>
+      <c r="E24">
+        <v>0.5055180375180375</v>
+      </c>
+      <c r="F24">
+        <v>-0.1945066945066945</v>
+      </c>
+      <c r="G24">
+        <v>-0.5884427284427285</v>
+      </c>
+      <c r="H24">
+        <v>-0.06123472923472924</v>
+      </c>
+      <c r="I24">
+        <v>0.003912819912819913</v>
+      </c>
+      <c r="J24">
+        <v>-0.05932282732282732</v>
+      </c>
+      <c r="K24">
+        <v>-0.07568319968319968</v>
+      </c>
+      <c r="L24">
+        <v>-0.0182016422016422</v>
+      </c>
+      <c r="M24">
+        <v>-0.02116823716823717</v>
+      </c>
+      <c r="N24">
+        <v>0.0005806445806445807</v>
+      </c>
+      <c r="O24">
+        <v>-0.2888916968916969</v>
+      </c>
+      <c r="P24">
+        <v>-0.3281894201894202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25">
+        <v>-0.3949192669192669</v>
+      </c>
+      <c r="E25">
+        <v>0.3914345114345114</v>
+      </c>
+      <c r="F25">
+        <v>-0.233038061038061</v>
+      </c>
+      <c r="G25">
+        <v>-0.2272079752079752</v>
+      </c>
+      <c r="H25">
+        <v>-0.05842964242964243</v>
+      </c>
+      <c r="I25">
+        <v>-0.02508956508956509</v>
+      </c>
+      <c r="J25">
+        <v>-0.05410750210750211</v>
+      </c>
+      <c r="K25">
+        <v>-0.1081594081594082</v>
+      </c>
+      <c r="L25">
+        <v>-0.007826371826371826</v>
+      </c>
+      <c r="M25">
+        <v>-0.02004761604761605</v>
+      </c>
+      <c r="N25">
+        <v>0.0192009552009552</v>
+      </c>
+      <c r="O25">
+        <v>-0.428035184035184</v>
+      </c>
+      <c r="P25">
+        <v>-0.4219263139263139</v>
       </c>
     </row>
   </sheetData>
